--- a/MyTeam/Content/templates/ReqTrackImportT.xlsx
+++ b/MyTeam/Content/templates/ReqTrackImportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,24 +455,24 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="5"/>
-    <col min="8" max="8" width="13.53125" style="5" customWidth="1"/>
-    <col min="9" max="11" width="9.1328125" style="5"/>
-    <col min="12" max="12" width="10.73046875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="4"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="13.5703125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
